--- a/lesson12_1/3年6班.xlsx
+++ b/lesson12_1/3年6班.xlsx
@@ -413,14 +413,47 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A1"/>
+  <dimension ref="A1:F1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>姓名</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>國文</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>英文</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>數學</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>地理</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>歷史</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/lesson12_1/3年6班.xlsx
+++ b/lesson12_1/3年6班.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F1"/>
+  <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -453,6 +453,72 @@
         </is>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>楊易政</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>80</v>
+      </c>
+      <c r="C2" t="n">
+        <v>63</v>
+      </c>
+      <c r="D2" t="n">
+        <v>60</v>
+      </c>
+      <c r="E2" t="n">
+        <v>98</v>
+      </c>
+      <c r="F2" t="n">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>崔孝憲</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>92</v>
+      </c>
+      <c r="C3" t="n">
+        <v>72</v>
+      </c>
+      <c r="D3" t="n">
+        <v>90</v>
+      </c>
+      <c r="E3" t="n">
+        <v>98</v>
+      </c>
+      <c r="F3" t="n">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>王怡珊</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>72</v>
+      </c>
+      <c r="C4" t="n">
+        <v>73</v>
+      </c>
+      <c r="D4" t="n">
+        <v>83</v>
+      </c>
+      <c r="E4" t="n">
+        <v>40</v>
+      </c>
+      <c r="F4" t="n">
+        <v>48</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
